--- a/product_dimensions.xlsx
+++ b/product_dimensions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rocketorange-my.sharepoint.com/personal/a_charles_rocketorange_nl/Documents/Documents/BOL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OMER\Desktop\bol-tariff-validator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C15F59-C393-4D2A-BD0A-E5317AE3B1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{207FFBAE-E466-4D59-85B1-D309DFEFF46D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +66,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,13 +94,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,20 +434,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E052F84-E287-4082-BECA-327C628214C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,9 +461,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>8719992661473</v>
+    <row r="2" spans="1:4" ht="14.4">
+      <c r="A2" s="3">
+        <v>8712345678901</v>
       </c>
       <c r="B2">
         <v>19.600000000000001</v>
@@ -470,9 +475,9 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>8720828495247</v>
+    <row r="3" spans="1:4" ht="14.4">
+      <c r="A3" s="3">
+        <v>8712345678902</v>
       </c>
       <c r="B3">
         <v>61.7</v>
@@ -484,9 +489,9 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>8720618229236</v>
+    <row r="4" spans="1:4" ht="14.4">
+      <c r="A4" s="3">
+        <v>8712345678903</v>
       </c>
       <c r="B4">
         <v>31.8</v>
@@ -498,9 +503,9 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>8720618229908</v>
+    <row r="5" spans="1:4" ht="14.4">
+      <c r="A5" s="3">
+        <v>8712345678904</v>
       </c>
       <c r="B5">
         <v>47</v>
@@ -512,9 +517,9 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>8720828495223</v>
+    <row r="6" spans="1:4" ht="14.4">
+      <c r="A6" s="3">
+        <v>8712345678905</v>
       </c>
       <c r="B6">
         <v>12.7</v>
@@ -526,9 +531,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>8720618229892</v>
+    <row r="7" spans="1:4" ht="14.4">
+      <c r="A7" s="3">
+        <v>8712345678906</v>
       </c>
       <c r="B7">
         <v>36.799999999999997</v>
@@ -540,9 +545,9 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>8720618229601</v>
+    <row r="8" spans="1:4" ht="14.4">
+      <c r="A8" s="3">
+        <v>8712345678907</v>
       </c>
       <c r="B8">
         <v>27.8</v>
@@ -554,9 +559,9 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8720618229687</v>
+    <row r="9" spans="1:4" ht="14.4">
+      <c r="A9" s="3">
+        <v>8712345678908</v>
       </c>
       <c r="B9">
         <v>22.9</v>
@@ -568,9 +573,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8721001270224</v>
+    <row r="10" spans="1:4" ht="14.4">
+      <c r="A10" s="3">
+        <v>8712345678909</v>
       </c>
       <c r="B10">
         <v>41.8</v>
@@ -582,9 +587,9 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>8720618229212</v>
+    <row r="11" spans="1:4" ht="14.4">
+      <c r="A11" s="3">
+        <v>8712345678910</v>
       </c>
       <c r="B11">
         <v>40.200000000000003</v>
@@ -596,9 +601,9 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>8721001270248</v>
+    <row r="12" spans="1:4" ht="14.4">
+      <c r="A12" s="3">
+        <v>8712345678911</v>
       </c>
       <c r="B12">
         <v>42.8</v>
@@ -610,9 +615,9 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>8719992661916</v>
+    <row r="13" spans="1:4" ht="14.4">
+      <c r="A13" s="3">
+        <v>8712345678912</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -624,9 +629,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>8719992661930</v>
+    <row r="14" spans="1:4" ht="14.4">
+      <c r="A14" s="3">
+        <v>8712345678913</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -638,9 +643,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>8720618229243</v>
+    <row r="15" spans="1:4" ht="14.4">
+      <c r="A15" s="3">
+        <v>8712345678914</v>
       </c>
       <c r="B15">
         <v>37.1</v>
@@ -652,9 +657,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>8721001270163</v>
+    <row r="16" spans="1:4" ht="14.4">
+      <c r="A16" s="3">
+        <v>8712345678915</v>
       </c>
       <c r="B16">
         <v>39.299999999999997</v>
@@ -666,9 +671,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>8719992661923</v>
+    <row r="17" spans="1:8" ht="14.4">
+      <c r="A17" s="3">
+        <v>8712345678916</v>
       </c>
       <c r="B17">
         <v>40.5</v>
@@ -680,9 +685,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>8720618229946</v>
+    <row r="18" spans="1:8" ht="14.4">
+      <c r="A18" s="3">
+        <v>8712345678917</v>
       </c>
       <c r="B18">
         <v>36.9</v>
@@ -694,9 +699,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>8721001270170</v>
+    <row r="19" spans="1:8" ht="14.4">
+      <c r="A19" s="3">
+        <v>8712345678918</v>
       </c>
       <c r="B19">
         <v>32.799999999999997</v>
@@ -708,9 +713,9 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>8721001270231</v>
+    <row r="20" spans="1:8" ht="14.4">
+      <c r="A20" s="3">
+        <v>8712345678919</v>
       </c>
       <c r="B20">
         <v>42.4</v>
@@ -722,9 +727,9 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>8719992661176</v>
+    <row r="21" spans="1:8" ht="14.4">
+      <c r="A21" s="3">
+        <v>8712345678920</v>
       </c>
       <c r="B21">
         <v>40</v>
@@ -736,9 +741,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>8720828495230</v>
+    <row r="22" spans="1:8" ht="14.4">
+      <c r="A22" s="3">
+        <v>8712345678921</v>
       </c>
       <c r="B22">
         <v>61.9</v>
@@ -750,9 +755,9 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>8719992661190</v>
+    <row r="23" spans="1:8" ht="14.4">
+      <c r="A23" s="3">
+        <v>8712345678922</v>
       </c>
       <c r="B23">
         <v>39.299999999999997</v>
@@ -764,9 +769,9 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>8721001271597</v>
+    <row r="24" spans="1:8" ht="14.4">
+      <c r="A24" s="3">
+        <v>8712345678923</v>
       </c>
       <c r="B24">
         <v>34.299999999999997</v>
@@ -778,9 +783,9 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>8720618229939</v>
+    <row r="25" spans="1:8" ht="14.4">
+      <c r="A25" s="3">
+        <v>8712345678924</v>
       </c>
       <c r="B25">
         <v>26.6</v>
@@ -792,26 +797,26 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.4">
       <c r="A26" s="3">
-        <v>8720618229731</v>
-      </c>
-      <c r="B26" s="4">
+        <v>8712345678925</v>
+      </c>
+      <c r="B26" s="2">
         <v>49.4</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>22.4</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>5</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>8721001270200</v>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.4">
+      <c r="A27" s="3">
+        <v>8712345678926</v>
       </c>
       <c r="B27">
         <v>32.799999999999997</v>
@@ -822,13 +827,13 @@
       <c r="D27">
         <v>3.4</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>8720618229922</v>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.4">
+      <c r="A28" s="3">
+        <v>8712345678927</v>
       </c>
       <c r="B28">
         <v>31.8</v>
@@ -839,13 +844,13 @@
       <c r="D28">
         <v>3.4</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>8721001270194</v>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.4">
+      <c r="A29" s="3">
+        <v>8712345678928</v>
       </c>
       <c r="B29">
         <v>34.1</v>
@@ -856,13 +861,13 @@
       <c r="D29">
         <v>3.9</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>8719992661206</v>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.4">
+      <c r="A30" s="3">
+        <v>8712345678929</v>
       </c>
       <c r="B30">
         <v>24.5</v>
@@ -873,13 +878,13 @@
       <c r="D30">
         <v>7</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>8719992661305</v>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.4">
+      <c r="A31" s="3">
+        <v>8712345678930</v>
       </c>
       <c r="B31">
         <v>28</v>
@@ -890,13 +895,13 @@
       <c r="D31">
         <v>7.4</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>8720618229953</v>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.4">
+      <c r="A32" s="3">
+        <v>8712345678931</v>
       </c>
       <c r="B32">
         <v>37.200000000000003</v>
@@ -907,13 +912,13 @@
       <c r="D32">
         <v>3.6</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>8719992661107</v>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.4">
+      <c r="A33" s="3">
+        <v>8712345678932</v>
       </c>
       <c r="B33">
         <v>29.9</v>
@@ -924,13 +929,13 @@
       <c r="D33">
         <v>5</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>8720618229694</v>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.4">
+      <c r="A34" s="3">
+        <v>8712345678933</v>
       </c>
       <c r="B34">
         <v>25</v>
@@ -941,13 +946,13 @@
       <c r="D34">
         <v>7.5</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>8720618229915</v>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.4">
+      <c r="A35" s="3">
+        <v>8712345678934</v>
       </c>
       <c r="B35">
         <v>30</v>
@@ -958,13 +963,13 @@
       <c r="D35">
         <v>3</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>8719992661824</v>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.4">
+      <c r="A36" s="3">
+        <v>8712345678935</v>
       </c>
       <c r="B36">
         <v>26.8</v>
@@ -975,13 +980,13 @@
       <c r="D36">
         <v>5.6</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>8719992661220</v>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.4">
+      <c r="A37" s="3">
+        <v>8712345678936</v>
       </c>
       <c r="B37">
         <v>31</v>
@@ -992,13 +997,13 @@
       <c r="D37">
         <v>2.9</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>8720618229205</v>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.4">
+      <c r="A38" s="3">
+        <v>8712345678937</v>
       </c>
       <c r="B38">
         <v>49.4</v>
@@ -1009,13 +1014,13 @@
       <c r="D38">
         <v>5</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>8719992661459</v>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.4">
+      <c r="A39" s="3">
+        <v>8712345678938</v>
       </c>
       <c r="B39">
         <v>19.600000000000001</v>
@@ -1026,13 +1031,13 @@
       <c r="D39">
         <v>15.1</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>8719992661466</v>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.4">
+      <c r="A40" s="3">
+        <v>8712345678939</v>
       </c>
       <c r="B40">
         <v>21.3</v>
@@ -1043,474 +1048,474 @@
       <c r="D40">
         <v>14.9</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>8721001270217</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.4">
+      <c r="A41" s="3">
+        <v>8712345678940</v>
+      </c>
+      <c r="B41" s="1">
         <v>27</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>24.8</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>8720618229267</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.4">
+      <c r="A42" s="3">
+        <v>8712345678941</v>
+      </c>
+      <c r="B42" s="1">
         <v>25.6</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>20</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>7.4</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>8719992661183</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.4">
+      <c r="A43" s="3">
+        <v>8712345678942</v>
+      </c>
+      <c r="B43" s="1">
         <v>28</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>24.8</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>8719992661671</v>
-      </c>
-      <c r="B44" s="2">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.4">
+      <c r="A44" s="3">
+        <v>8712345678943</v>
+      </c>
+      <c r="B44" s="1">
         <v>44.5</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>27.1</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>14</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>8720618229250</v>
-      </c>
-      <c r="B45" s="2">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="14.4">
+      <c r="A45" s="3">
+        <v>8712345678944</v>
+      </c>
+      <c r="B45" s="1">
         <v>25</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>19.8</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>6.1</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>8721001270187</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.4">
+      <c r="A46" s="3">
+        <v>8712345678945</v>
+      </c>
+      <c r="B46" s="1">
         <v>33.200000000000003</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>32.299999999999997</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>3.9</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>8719992661695</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="14.4">
+      <c r="A47" s="3">
+        <v>8712345678946</v>
+      </c>
+      <c r="B47" s="1">
         <v>40.5</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>31.9</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>7.5</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>8721001271382</v>
-      </c>
-      <c r="B48" s="2">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="14.4">
+      <c r="A48" s="3">
+        <v>8712345678947</v>
+      </c>
+      <c r="B48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>37</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>37</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>8721001271726</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="14.4">
+      <c r="A49" s="3">
+        <v>8712345678948</v>
+      </c>
+      <c r="B49" s="1">
         <v>31.7</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>24.3</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>12.3</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>8721001271733</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="14.4">
+      <c r="A50" s="3">
+        <v>8712345678949</v>
+      </c>
+      <c r="B50" s="1">
         <v>39.1</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>28.8</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>5.5</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>8721001271658</v>
-      </c>
-      <c r="B51" s="2">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.4">
+      <c r="A51" s="3">
+        <v>8712345678950</v>
+      </c>
+      <c r="B51" s="1">
         <v>31.5</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>25.6</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>16</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
-        <v>8721001271719</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="14.4">
+      <c r="A52" s="3">
+        <v>8712345678951</v>
+      </c>
+      <c r="B52" s="1">
         <v>43</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>32</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>19.8</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>8721001271603</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="14.4">
+      <c r="A53" s="3">
+        <v>8712345678952</v>
+      </c>
+      <c r="B53" s="1">
         <v>32.200000000000003</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>24.4</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>13.3</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
-        <v>8721001271634</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="14.4">
+      <c r="A54" s="3">
+        <v>8712345678953</v>
+      </c>
+      <c r="B54" s="1">
         <v>46</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>37</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>37</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
-        <v>8721001271771</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" ht="14.4">
+      <c r="A55" s="3">
+        <v>8712345678954</v>
+      </c>
+      <c r="B55" s="1">
         <v>38</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>40</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>47</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
-        <v>8721001271702</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" ht="14.4">
+      <c r="A56" s="3">
+        <v>8712345678955</v>
+      </c>
+      <c r="B56" s="1">
         <v>27.3</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>24.6</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>14</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
-        <v>8721001271757</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="14.4">
+      <c r="A57" s="3">
+        <v>8712345678956</v>
+      </c>
+      <c r="B57" s="1">
         <v>37.9</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>32.299999999999997</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>3</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <v>8721001271696</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="14.4">
+      <c r="A58" s="3">
+        <v>8712345678957</v>
+      </c>
+      <c r="B58" s="1">
         <v>43</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>33</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>5</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
-        <v>8721001271641</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="14.4">
+      <c r="A59" s="3">
+        <v>8712345678958</v>
+      </c>
+      <c r="B59" s="1">
         <v>35.9</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>35.700000000000003</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>16.3</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
-        <v>8721001271788</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="14.4">
+      <c r="A60" s="3">
+        <v>8712345678959</v>
+      </c>
+      <c r="B60" s="1">
         <v>43</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>33</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>5</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
-        <v>8721001271665</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="14.4">
+      <c r="A61" s="3">
+        <v>8712345678960</v>
+      </c>
+      <c r="B61" s="1">
         <v>63</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>61</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>54</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
-        <v>8721001271689</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" ht="14.4">
+      <c r="A62" s="3">
+        <v>8712345678961</v>
+      </c>
+      <c r="B62" s="1">
         <v>55</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>60</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>55</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
-        <v>8721001271672</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="14.4">
+      <c r="A63" s="3">
+        <v>8712345678962</v>
+      </c>
+      <c r="B63" s="1">
         <v>59</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>59</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>5.5</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
-        <v>8721001271764</v>
-      </c>
-      <c r="B64" s="2">
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" ht="14.4">
+      <c r="A64" s="3">
+        <v>8712345678963</v>
+      </c>
+      <c r="B64" s="1">
         <v>37.299999999999997</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>31.8</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>3.3</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
-        <v>8721001271610</v>
-      </c>
-      <c r="B65" s="2">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" ht="14.4">
+      <c r="A65" s="3">
+        <v>8712345678964</v>
+      </c>
+      <c r="B65" s="1">
         <v>38</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>40</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>47</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
-        <v>8720618229564</v>
-      </c>
-      <c r="B66" s="2">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" ht="14.4">
+      <c r="A66" s="3">
+        <v>8712345678965</v>
+      </c>
+      <c r="B66" s="1">
         <v>40.5</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>31.1</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>7.4</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
